--- a/LF/TAS/Nigeria/2024/june_2024/Kano/ng_lf_tas_2406_1_sit_part.xlsx
+++ b/LF/TAS/Nigeria/2024/june_2024/Kano/ng_lf_tas_2406_1_sit_part.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bonhe\Repositories\dsa-forms\LF\TAS\Nigeria\2024\june_2024\Kano\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43098EC-44FA-41E4-807B-2E423440EF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A844CD8-B681-46AB-B020-5340B6CA9606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6168" uniqueCount="946">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6160" uniqueCount="938">
   <si>
     <t>type</t>
   </si>
@@ -2804,12 +2804,6 @@
     <t>Other</t>
   </si>
   <si>
-    <t>ng_lf_tas_2406_1_sit_part_v2</t>
-  </si>
-  <si>
-    <t>ng_tas_p_2406_2</t>
-  </si>
-  <si>
     <t>c_total_primaries</t>
   </si>
   <si>
@@ -2834,9 +2828,6 @@
     <t xml:space="preserve">What type of toilet system do you have in this School? </t>
   </si>
   <si>
-    <t>c_clean_toilet</t>
-  </si>
-  <si>
     <t xml:space="preserve">Do you have clean water in this School?  </t>
   </si>
   <si>
@@ -2846,37 +2837,22 @@
     <t xml:space="preserve">What is the source of water in this School? </t>
   </si>
   <si>
-    <t>p_swallowed_lf_med</t>
-  </si>
-  <si>
-    <t>Have you ever swallowed LF medicines (Y/N)?</t>
-  </si>
-  <si>
-    <t>p_how_many_time_swallowed</t>
-  </si>
-  <si>
-    <t>If Yes, how many times taken?</t>
-  </si>
-  <si>
-    <t>${p_swallowed_lf_med} = 'Yes'</t>
-  </si>
-  <si>
-    <t>have_mosquito_net</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do you have mosquito net? </t>
-  </si>
-  <si>
-    <t>sleep_mosquito_net</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do you sleep inside mosquito net? </t>
-  </si>
-  <si>
-    <t>${have_mosquito_net} = 'Yes'</t>
-  </si>
-  <si>
-    <t>(June 2024) - 1. Kano - TAS1 LF Site &amp; participant Form V2</t>
+    <t>ng_lf_tas_2406_1_sit_part_v3</t>
+  </si>
+  <si>
+    <t>(June 2024) - 1. Kano - TAS1 LF Site &amp; participant Form V3</t>
+  </si>
+  <si>
+    <t>ng_tas_p_2406_3</t>
+  </si>
+  <si>
+    <t>${c_toilet} = 'Yes'</t>
+  </si>
+  <si>
+    <t>c_has_water</t>
+  </si>
+  <si>
+    <t>${c_has_water} = 'Yes'</t>
   </si>
 </sst>
 </file>
@@ -3521,13 +3497,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O40"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A30" sqref="A30:XFD33"/>
+      <selection pane="bottomRight" activeCell="A13" sqref="A13:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3853,14 +3829,17 @@
         <v>13</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="G13" s="6"/>
+      <c r="H13" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6" t="s">
         <v>17</v>
@@ -3874,14 +3853,17 @@
         <v>24</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="G14" s="6"/>
+      <c r="H14" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="I14" s="6"/>
       <c r="J14" s="6" t="s">
         <v>17</v>
@@ -3895,14 +3877,17 @@
         <v>26</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="G15" s="6"/>
+      <c r="H15" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="I15" s="6"/>
       <c r="J15" s="6" t="s">
         <v>17</v>
@@ -3916,14 +3901,17 @@
         <v>24</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="G16" s="6"/>
+      <c r="H16" s="4" t="s">
+        <v>935</v>
+      </c>
       <c r="I16" s="6"/>
       <c r="J16" s="6" t="s">
         <v>17</v>
@@ -3937,14 +3925,17 @@
         <v>26</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>931</v>
+        <v>936</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="G17" s="6"/>
+      <c r="H17" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="I17" s="6"/>
       <c r="J17" s="6" t="s">
         <v>17</v>
@@ -3958,14 +3949,17 @@
         <v>24</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="G18" s="6"/>
+      <c r="H18" s="4" t="s">
+        <v>937</v>
+      </c>
       <c r="I18" s="6"/>
       <c r="J18" s="6" t="s">
         <v>17</v>
@@ -4037,7 +4031,7 @@
         <v>81</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>922</v>
+        <v>934</v>
       </c>
       <c r="C22" s="18" t="s">
         <v>82</v>
@@ -4225,157 +4219,97 @@
     </row>
     <row r="30" spans="1:15" s="4" customFormat="1">
       <c r="A30" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="37" t="s">
-        <v>935</v>
+        <v>33</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>936</v>
+        <v>35</v>
       </c>
       <c r="D30" s="6"/>
-      <c r="H30" s="6"/>
+      <c r="H30" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="J30" s="6"/>
     </row>
-    <row r="31" spans="1:15" s="4" customFormat="1" ht="31.5">
+    <row r="31" spans="1:15" s="4" customFormat="1">
       <c r="A31" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="37" t="s">
-        <v>937</v>
+        <v>36</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>106</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>938</v>
+        <v>107</v>
       </c>
       <c r="D31" s="6"/>
-      <c r="H31" s="6" t="s">
-        <v>939</v>
-      </c>
-      <c r="J31" s="6"/>
-    </row>
-    <row r="32" spans="1:15" s="4" customFormat="1">
-      <c r="A32" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B32" s="37" t="s">
-        <v>940</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>941</v>
-      </c>
-      <c r="D32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="J32" s="6"/>
-    </row>
-    <row r="33" spans="1:13" s="4" customFormat="1" ht="31.5">
+      <c r="F31" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" s="4" customFormat="1">
       <c r="A33" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33" s="37" t="s">
-        <v>942</v>
+        <v>33</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>943</v>
+        <v>35</v>
       </c>
       <c r="D33" s="6"/>
-      <c r="H33" s="6" t="s">
-        <v>944</v>
+      <c r="H33" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="J33" s="6"/>
     </row>
-    <row r="34" spans="1:13" s="4" customFormat="1">
-      <c r="A34" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D34" s="6"/>
-      <c r="H34" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="J34" s="6"/>
+    <row r="34" spans="1:13">
+      <c r="A34" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B34" s="22"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
     </row>
     <row r="35" spans="1:13" s="4" customFormat="1">
       <c r="A35" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="D35" s="6"/>
-      <c r="F35" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" s="4" customFormat="1">
-      <c r="A37" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D37" s="6"/>
-      <c r="H37" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J37" s="6"/>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="A38" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="B38" s="22"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
-    </row>
-    <row r="39" spans="1:13" s="4" customFormat="1">
-      <c r="A39" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C39" s="6" t="s">
+    </row>
+    <row r="36" spans="1:13" s="4" customFormat="1">
+      <c r="A36" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D39" s="6"/>
-    </row>
-    <row r="40" spans="1:13" s="4" customFormat="1">
-      <c r="A40" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D40" s="6"/>
+      <c r="D36" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22589,7 +22523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -22617,10 +22551,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>945</v>
+        <v>933</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>921</v>
+        <v>932</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>51</v>

--- a/LF/TAS/Nigeria/2024/june_2024/Kano/ng_lf_tas_2406_1_sit_part.xlsx
+++ b/LF/TAS/Nigeria/2024/june_2024/Kano/ng_lf_tas_2406_1_sit_part.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bonhe\Repositories\dsa-forms\LF\TAS\Nigeria\2024\june_2024\Kano\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE05BD95-1BDE-4E02-907B-0FF13D6D810A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019C1A5F-47E8-4516-A5DF-F1A000E49A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -2846,12 +2846,6 @@
     <t>${c_has_water} = 'Yes'</t>
   </si>
   <si>
-    <t>ng_lf_tas_2406_1_sit_part_kn_v3</t>
-  </si>
-  <si>
-    <t>ng_tas_p_2406_31</t>
-  </si>
-  <si>
     <t>(June 2024) Kano - 1. TAS1 LF Site &amp; participant Form V3</t>
   </si>
   <si>
@@ -2898,6 +2892,12 @@
   </si>
   <si>
     <t>25</t>
+  </si>
+  <si>
+    <t>ng_tas_p_2406_32</t>
+  </si>
+  <si>
+    <t>ng_lf_tas_2406_1_sit_part_kn_v32</t>
   </si>
 </sst>
 </file>
@@ -3554,7 +3554,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4082,7 +4082,7 @@
         <v>81</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>936</v>
+        <v>951</v>
       </c>
       <c r="C22" s="18" t="s">
         <v>82</v>
@@ -4372,9 +4372,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F1329"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4520,10 +4520,10 @@
         <v>69</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="4" customFormat="1">
@@ -4531,10 +4531,10 @@
         <v>69</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="4" customFormat="1">
@@ -4542,10 +4542,10 @@
         <v>69</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="4" customFormat="1">
@@ -4553,10 +4553,10 @@
         <v>69</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="4" customFormat="1">
@@ -4564,10 +4564,10 @@
         <v>69</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="4" customFormat="1">
@@ -4575,10 +4575,10 @@
         <v>69</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="4" customFormat="1">
@@ -4586,10 +4586,10 @@
         <v>69</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="4" customFormat="1">
@@ -4597,10 +4597,10 @@
         <v>69</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="4" customFormat="1">
@@ -4608,10 +4608,10 @@
         <v>69</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="4" customFormat="1">
@@ -4619,10 +4619,10 @@
         <v>69</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="4" customFormat="1">
@@ -4630,10 +4630,10 @@
         <v>69</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="4" customFormat="1">
@@ -4641,10 +4641,10 @@
         <v>69</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="4" customFormat="1">
@@ -4652,10 +4652,10 @@
         <v>69</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="C24" s="35" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="4" customFormat="1">
@@ -4663,10 +4663,10 @@
         <v>69</v>
       </c>
       <c r="B25" s="35" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="4" customFormat="1">
@@ -4674,10 +4674,10 @@
         <v>69</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="4" customFormat="1">
@@ -22740,8 +22740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -22768,10 +22768,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>935</v>
+        <v>952</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>51</v>
